--- a/shivam_provision_store_sale.xlsx
+++ b/shivam_provision_store_sale.xlsx
@@ -10,18 +10,19 @@
     <sheet name="cash" r:id="rId4" sheetId="2"/>
     <sheet name="haryana_palace_restaurent_and_b" r:id="rId5" sheetId="3"/>
     <sheet name="hotal_abha_regency" r:id="rId6" sheetId="4"/>
-    <sheet name="m_m_builders" r:id="rId7" sheetId="5"/>
-    <sheet name="palm_tree_hotel_and_restaurent" r:id="rId8" sheetId="6"/>
-    <sheet name="pick_n_pay_store" r:id="rId9" sheetId="7"/>
-    <sheet name="radhey_dipartmental" r:id="rId10" sheetId="8"/>
-    <sheet name="rasam_restaurent__brewbakes_cou" r:id="rId11" sheetId="9"/>
-    <sheet name="state_bank_of_india" r:id="rId12" sheetId="10"/>
+    <sheet name="m_l_enterprises" r:id="rId7" sheetId="5"/>
+    <sheet name="m_m_builders" r:id="rId8" sheetId="6"/>
+    <sheet name="palm_tree_hotel_and_restaurent" r:id="rId9" sheetId="7"/>
+    <sheet name="pick_n_pay_store" r:id="rId10" sheetId="8"/>
+    <sheet name="radhey_dipartmental" r:id="rId11" sheetId="9"/>
+    <sheet name="rasam_restaurent__brewbakes_cou" r:id="rId12" sheetId="10"/>
+    <sheet name="state_bank_of_india" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
   <si>
     <t>S_NO</t>
   </si>
@@ -183,6 +184,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1"/>
